--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_6/bcw_train_80_test_20_depth_6_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_6/bcw_train_80_test_20_depth_6_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.927536231884058</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9015151515151516</v>
+        <v>0.9412393162393162</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9097222222222223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9082125603864735</v>
+        <v>0.9220512820512821</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9194577352472089</v>
+        <v>0.9330859199280251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9132977370963641</v>
+        <v>0.9285290148448043</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_6/bcw_train_80_test_20_depth_6_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_6/bcw_train_80_test_20_depth_6_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9102564102564102</v>
+        <v>0.91</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9861111111111112</v>
+        <v>0.99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
         <v>42</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9298245614035088</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9298245614035088</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9412393162393162</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9097222222222223</v>
+        <v>0.91</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9220512820512821</v>
+        <v>0.92</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9330859199280251</v>
+        <v>0.93</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.93</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9285290148448043</v>
+        <v>0.93</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>
